--- a/Data Files/xlsx files/AMP_Y.xlsx
+++ b/Data Files/xlsx files/AMP_Y.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet 2" sheetId="3" r:id="rId2"/>
+    <sheet name="Login email PW" sheetId="1" r:id="rId1"/>
+    <sheet name="Login page CSS" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -351,7 +351,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,6 +397,14 @@
       <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -465,14 +473,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -480,7 +492,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -504,27 +516,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -828,10 +845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,7 +866,7 @@
     <col min="12" max="12" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
@@ -859,32 +876,8 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -894,23 +887,8 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -920,29 +898,8 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -952,23 +909,8 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,23 +920,8 @@
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1004,14 +931,8 @@
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1021,20 +942,8 @@
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1044,20 +953,8 @@
       <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1068,7 +965,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1079,7 +976,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1090,7 +987,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -1101,7 +998,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -1112,7 +1009,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -1123,7 +1020,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
@@ -1132,7 +1029,7 @@
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:13" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
@@ -1519,32 +1416,196 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A24" r:id="rId1" display="http://email.domain.com/"/>
-    <hyperlink ref="K2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="4" width="18.5703125" customWidth="1"/>
     <col min="5" max="5" width="22.140625" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" customWidth="1"/>
     <col min="7" max="7" width="21.140625" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:8" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Data Files/xlsx files/AMP_Y.xlsx
+++ b/Data Files/xlsx files/AMP_Y.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Login email PW" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="130">
   <si>
     <t>Description</t>
   </si>
@@ -345,6 +345,66 @@
   </si>
   <si>
     <t>16px</t>
+  </si>
+  <si>
+    <t>Navaraj@totient.co.in</t>
+  </si>
+  <si>
+    <t>Totient@123</t>
+  </si>
+  <si>
+    <t>navaraj@totient.co.in</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Required Field</t>
+  </si>
+  <si>
+    <t>amanda@totient.com</t>
+  </si>
+  <si>
+    <t>Wrong email or password</t>
+  </si>
+  <si>
+    <t>password123</t>
+  </si>
+  <si>
+    <t>LG-01</t>
+  </si>
+  <si>
+    <t>LG-02</t>
+  </si>
+  <si>
+    <t>LG-03</t>
+  </si>
+  <si>
+    <t>LG-04</t>
+  </si>
+  <si>
+    <t>LG-05</t>
+  </si>
+  <si>
+    <t>LG-06</t>
+  </si>
+  <si>
+    <t>LG-07</t>
+  </si>
+  <si>
+    <t>NAVARAJ@TOTIENT.CO.IN</t>
+  </si>
+  <si>
+    <t>LG-09</t>
+  </si>
+  <si>
+    <t>navarajTotient.com</t>
+  </si>
+  <si>
+    <t>LG-94</t>
+  </si>
+  <si>
+    <t>LG-95</t>
   </si>
 </sst>
 </file>
@@ -407,7 +467,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,6 +477,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,7 +558,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -543,6 +609,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -845,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,7 +938,7 @@
     <col min="12" max="12" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
@@ -877,428 +949,433 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B5" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="6" spans="1:5" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B6" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="7" spans="1:5" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B7" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="8" spans="1:5" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B8" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="9" spans="1:5" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B9" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="10" spans="1:5" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B10" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="11" spans="1:5" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B11" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="12" spans="1:5" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B12" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="13" spans="1:5" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B13" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="14" spans="1:5" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B14" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="15" spans="1:5" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B15" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="16" spans="1:5" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B16" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="17" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B17" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+    <row r="18" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="B18" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="B19" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="B20" s="1">
         <v>123456789</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B23" s="1">
         <v>123456789</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>38</v>
+      <c r="A24" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B24" s="1">
         <v>123456789</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B25" s="1">
         <v>123456789</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B26" s="1">
         <v>123456789</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>44</v>
+      <c r="A27" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="B27" s="1">
         <v>123456789</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B28" s="1">
         <v>123456789</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B29" s="1">
         <v>123456789</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B30" s="1">
         <v>123456789</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B31" s="1">
         <v>123456789</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B32" s="1">
         <v>123456789</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B33" s="1">
         <v>123456789</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B34" s="1">
         <v>123456789</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="B38" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+    <row r="39" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+      <c r="B39" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
+      <c r="B40" s="1">
+        <v>123456789</v>
+      </c>
       <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
+      </c>
+      <c r="B41" s="1">
+        <v>123456789</v>
       </c>
       <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>70</v>
+      <c r="A42" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="1">
+        <v>123456789</v>
       </c>
       <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1306,7 +1383,7 @@
         <v>68</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C44" s="2"/>
     </row>
@@ -1315,7 +1392,7 @@
         <v>68</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C45" s="2"/>
     </row>
@@ -1324,7 +1401,7 @@
         <v>68</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C46" s="2"/>
     </row>
@@ -1333,7 +1410,7 @@
         <v>68</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C47" s="2"/>
     </row>
@@ -1342,7 +1419,7 @@
         <v>68</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C48" s="2"/>
     </row>
@@ -1351,7 +1428,7 @@
         <v>68</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C49" s="2"/>
     </row>
@@ -1360,7 +1437,7 @@
         <v>68</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C50" s="2"/>
     </row>
@@ -1369,7 +1446,7 @@
         <v>68</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C51" s="2"/>
     </row>
@@ -1377,8 +1454,8 @@
       <c r="A52" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="1">
-        <v>1234568</v>
+      <c r="B52" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="C52" s="2"/>
     </row>
@@ -1386,8 +1463,8 @@
       <c r="A53" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="1">
-        <v>123456789</v>
+      <c r="B53" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="C53" s="2"/>
     </row>
@@ -1396,7 +1473,7 @@
         <v>68</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C54" s="2"/>
     </row>
@@ -1404,21 +1481,159 @@
       <c r="A55" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="1">
+        <v>1234568</v>
+      </c>
+      <c r="C55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C55" s="2"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63" t="s">
+        <v>114</v>
+      </c>
+      <c r="D63" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" t="s">
+        <v>114</v>
+      </c>
+      <c r="D64" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" t="s">
+        <v>116</v>
+      </c>
+      <c r="D65" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B66" t="s">
+        <v>117</v>
+      </c>
+      <c r="C66" t="s">
+        <v>116</v>
+      </c>
+      <c r="D66" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B67" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67" t="s">
+        <v>116</v>
+      </c>
+      <c r="D67" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C68" t="s">
+        <v>114</v>
+      </c>
+      <c r="D68" t="s">
+        <v>129</v>
+      </c>
+      <c r="E68" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>127</v>
+      </c>
+      <c r="B70" t="s">
+        <v>111</v>
+      </c>
+      <c r="C70" t="s">
+        <v>91</v>
+      </c>
+      <c r="D70" t="s">
+        <v>128</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A24" r:id="rId1" display="http://email.domain.com/"/>
+    <hyperlink ref="A27" r:id="rId1" display="http://email.domain.com/"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId3"/>
+    <hyperlink ref="A63" r:id="rId4"/>
+    <hyperlink ref="B64" r:id="rId5"/>
+    <hyperlink ref="A65" r:id="rId6"/>
+    <hyperlink ref="B65" r:id="rId7"/>
+    <hyperlink ref="A66" r:id="rId8"/>
+    <hyperlink ref="A67" r:id="rId9"/>
+    <hyperlink ref="A3" r:id="rId10"/>
+    <hyperlink ref="B3" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -1426,7 +1641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
